--- a/Tableau des dépenses projet akemichi.xlsx
+++ b/Tableau des dépenses projet akemichi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\Desktop\Cours\Projet piquart cahier des charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02C176-F413-4AD5-A60E-459462501926}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E22186-1BCC-48F3-8813-899C780E7E42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{6250B1E5-7856-432F-AAEC-F6B73E2D2F52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6250B1E5-7856-432F-AAEC-F6B73E2D2F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,24 +39,9 @@
     <t>LOGICIELS</t>
   </si>
   <si>
-    <t>MATERIELS</t>
-  </si>
-  <si>
     <t>DEPENSES</t>
   </si>
   <si>
-    <t>pour passer d'un journée homme en €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220 jour de travail par an </t>
-  </si>
-  <si>
-    <t>si salaire 30K --&gt; 45K avec charges patro</t>
-  </si>
-  <si>
-    <t>45000/220</t>
-  </si>
-  <si>
     <t>tps Design</t>
   </si>
   <si>
@@ -78,12 +63,6 @@
     <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve">   Double barre de navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Respect charte graphique</t>
-  </si>
-  <si>
     <t>Création de la page lien</t>
   </si>
   <si>
@@ -102,15 +81,9 @@
     <t>Création de la page contact</t>
   </si>
   <si>
-    <t>Création pages sec à partir page evo</t>
-  </si>
-  <si>
     <t>Lien vers pdf  "Zones de risques"</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>LOT 1</t>
   </si>
   <si>
@@ -129,18 +102,12 @@
     <t>Espace dédié photothèque</t>
   </si>
   <si>
-    <t>5+</t>
-  </si>
-  <si>
     <t>Création page admin gestion texte/photo</t>
   </si>
   <si>
     <t>Ajout fonctionnalité langue</t>
   </si>
   <si>
-    <t>fontionnalité BDD</t>
-  </si>
-  <si>
     <t>Ajout plan de sécurité interactif</t>
   </si>
   <si>
@@ -154,13 +121,46 @@
   </si>
   <si>
     <t>intégration visité guidé interactive</t>
+  </si>
+  <si>
+    <t>BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Etude et creation BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Referencement produit BDD</t>
+  </si>
+  <si>
+    <t>TOTAL LOT 1</t>
+  </si>
+  <si>
+    <t>TOTAL LOT2</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>prix</t>
+  </si>
+  <si>
+    <t>Solution OVH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hebergement site web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hebergement BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Reservation nom de domaine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +176,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,14 +200,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DA61D-E469-4C2A-A359-0104E5FB5AE1}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,211 +645,817 @@
     <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SUM(C4:E4)*B4</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <f>SUM(F$1:F4)</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4">
+        <f>H4*F4</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F25" si="0">SUM(C5:E5)*B5</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <f>SUM(F$1:F5)</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="3">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I24" si="1">H5*F5</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <f>SUM(F$1:F6)</f>
+        <v>18</v>
+      </c>
+      <c r="H6" s="3">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <f>SUM(F$1:F7)</f>
+        <v>24</v>
+      </c>
+      <c r="H7" s="3">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <f>SUM(F$1:F8)</f>
+        <v>30</v>
+      </c>
+      <c r="H8" s="3">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <f>SUM(F$1:F9)</f>
+        <v>36</v>
+      </c>
+      <c r="H9" s="3">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <f>SUM(F$1:F10)</f>
+        <v>56</v>
+      </c>
+      <c r="H10" s="3">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="3">
+        <f>SUM(F$1:F11)</f>
+        <v>57.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f t="shared" ref="C12" si="2">SUM(C4:C11)</f>
+        <v>13.5</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12" si="3">SUM(D4:D11)</f>
+        <v>14.5</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12" si="4">SUM(E4:E11)</f>
+        <v>13.5</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12" si="5">SUM(F4:F11)</f>
+        <v>57.5</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="11">
+        <f>SUM(I4:I11)</f>
+        <v>1897.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <f>SUM(F$1:F14)</f>
+        <v>121</v>
+      </c>
+      <c r="H14" s="3">
+        <v>33</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(F$1:F15)</f>
+        <v>124</v>
+      </c>
+      <c r="H15" s="3">
+        <v>33</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <f>SUM(F$1:F16)</f>
+        <v>132</v>
+      </c>
+      <c r="H16" s="3">
+        <v>33</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(F$1:F17)</f>
+        <v>135</v>
+      </c>
+      <c r="H17" s="3">
+        <v>33</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(C19:C20)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:E18" si="6">SUM(D19:D20)</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(F$1:F18)</f>
+        <v>149</v>
+      </c>
+      <c r="H18" s="3">
+        <v>33</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <f>SUM(F$1:F21)</f>
+        <v>153</v>
+      </c>
+      <c r="H21" s="3">
+        <v>33</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <f>SUM(F$1:F22)</f>
+        <v>156</v>
+      </c>
+      <c r="H22" s="3">
+        <v>33</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G23" s="3">
+        <f>SUM(F$1:F23)</f>
+        <v>166</v>
+      </c>
+      <c r="H23" s="3">
+        <v>33</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <f>SUM(F$1:F24)</f>
+        <v>183</v>
+      </c>
+      <c r="H24" s="3">
+        <v>33</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G25" s="3">
+        <f>SUM(F$1:F25)</f>
+        <v>189</v>
+      </c>
+      <c r="H25" s="3">
+        <v>33</v>
+      </c>
+      <c r="I25" s="4">
+        <f>H25*F25</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26" si="7">SUM(C14:C25)</f>
+        <v>29</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" ref="D26" si="8">SUM(D14:D25)</f>
+        <v>33</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" ref="E26" si="9">SUM(E14:E25)</f>
         <v>26</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F26" s="11">
+        <f t="shared" ref="F26" si="10">SUM(F14:F25)</f>
+        <v>74</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11">
+        <f>SUM(I14:I25)</f>
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="9">
+        <f t="shared" ref="C27" si="11">C26+C12</f>
+        <v>42.5</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" ref="D27" si="12">D26+D12</f>
+        <v>47.5</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" ref="E27" si="13">E26+E12</f>
+        <v>39.5</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" ref="F27" si="14">F26+F12</f>
+        <v>131.5</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
+        <f>SUM(I12,I26)</f>
+        <v>4339.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tableau des dépenses projet akemichi.xlsx
+++ b/Tableau des dépenses projet akemichi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\Desktop\Cours\Projet piquart cahier des charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E22186-1BCC-48F3-8813-899C780E7E42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413AA58-3ADD-4564-9629-741C09DC3EB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6250B1E5-7856-432F-AAEC-F6B73E2D2F52}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>RESSOURCE HUMAINE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>temps total</t>
-  </si>
-  <si>
-    <t>temps cumule croissant</t>
   </si>
   <si>
     <t>prix heure personne</t>
@@ -631,26 +628,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DA61D-E469-4C2A-A359-0104E5FB5AE1}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>3</v>
@@ -667,14 +663,11 @@
       <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -684,12 +677,11 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -697,12 +689,11 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -721,20 +712,16 @@
         <v>6</v>
       </c>
       <c r="G4" s="3">
-        <f>SUM(F$1:F4)</f>
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4">
-        <f>H4*F4</f>
+        <v>33</v>
+      </c>
+      <c r="H4" s="4">
+        <f>G4*F4</f>
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -753,148 +740,128 @@
         <v>6</v>
       </c>
       <c r="G5" s="3">
-        <f>SUM(F$1:F5)</f>
+        <v>33</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5*F5</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G6*F6</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G7*F7</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I24" si="1">H5*F5</f>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G8*F8</f>
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="3">
-        <f>SUM(F$1:F6)</f>
-        <v>18</v>
-      </c>
-      <c r="H6" s="3">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="1"/>
+      <c r="G9" s="3">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G9*F9</f>
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="3">
-        <f>SUM(F$1:F7)</f>
-        <v>24</v>
-      </c>
-      <c r="H7" s="3">
-        <v>33</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="3">
-        <f>SUM(F$1:F8)</f>
-        <v>30</v>
-      </c>
-      <c r="H8" s="3">
-        <v>33</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G9" s="3">
-        <f>SUM(F$1:F9)</f>
-        <v>36</v>
-      </c>
-      <c r="H9" s="3">
-        <v>33</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -913,20 +880,16 @@
         <v>20</v>
       </c>
       <c r="G10" s="3">
-        <f>SUM(F$1:F10)</f>
-        <v>56</v>
-      </c>
-      <c r="H10" s="3">
-        <v>33</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H10" s="4">
+        <f>G10*F10</f>
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -945,48 +908,43 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="3">
-        <f>SUM(F$1:F11)</f>
-        <v>57.5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>33</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H11" s="4">
+        <f>G11*F11</f>
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11">
-        <f t="shared" ref="C12" si="2">SUM(C4:C11)</f>
+        <f t="shared" ref="C12" si="1">SUM(C4:C11)</f>
         <v>13.5</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" ref="D12" si="3">SUM(D4:D11)</f>
+        <f t="shared" ref="D12" si="2">SUM(D4:D11)</f>
         <v>14.5</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" ref="E12" si="4">SUM(E4:E11)</f>
+        <f t="shared" ref="E12" si="3">SUM(E4:E11)</f>
         <v>13.5</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" ref="F12" si="5">SUM(F4:F11)</f>
+        <f t="shared" ref="F12" si="4">SUM(F4:F11)</f>
         <v>57.5</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="11">
-        <f>SUM(I4:I11)</f>
+      <c r="G12" s="16"/>
+      <c r="H12" s="11">
+        <f>SUM(H4:H11)</f>
         <v>1897.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -994,76 +952,67 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>33</v>
+      </c>
+      <c r="H14" s="4">
+        <f>G14*F14</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G14" s="3">
-        <f>SUM(F$1:F14)</f>
-        <v>121</v>
-      </c>
-      <c r="H14" s="3">
-        <v>33</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4">
+        <f>G15*F15</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <f>SUM(F$1:F15)</f>
-        <v>124</v>
-      </c>
-      <c r="H15" s="3">
-        <v>33</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -1082,20 +1031,16 @@
         <v>8</v>
       </c>
       <c r="G16" s="3">
-        <f>SUM(F$1:F16)</f>
-        <v>132</v>
-      </c>
-      <c r="H16" s="3">
-        <v>33</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H16" s="4">
+        <f>G16*F16</f>
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -1114,20 +1059,16 @@
         <v>3</v>
       </c>
       <c r="G17" s="3">
-        <f>SUM(F$1:F17)</f>
-        <v>135</v>
-      </c>
-      <c r="H17" s="3">
-        <v>33</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H17" s="4">
+        <f>G17*F17</f>
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -1137,11 +1078,11 @@
         <v>5</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:E18" si="6">SUM(D19:D20)</f>
+        <f t="shared" ref="D18:E18" si="5">SUM(D19:D20)</f>
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F18" s="3">
@@ -1149,20 +1090,16 @@
         <v>14</v>
       </c>
       <c r="G18" s="3">
-        <f>SUM(F$1:F18)</f>
-        <v>149</v>
-      </c>
-      <c r="H18" s="3">
-        <v>33</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H18" s="4">
+        <f>G18*F18</f>
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="3">
@@ -1176,12 +1113,11 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3">
@@ -1195,76 +1131,67 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>33</v>
+      </c>
+      <c r="H21" s="4">
+        <f>G21*F21</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <f>SUM(F$1:F21)</f>
-        <v>153</v>
-      </c>
-      <c r="H21" s="3">
-        <v>33</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>33</v>
+      </c>
+      <c r="H22" s="4">
+        <f>G22*F22</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <f>SUM(F$1:F22)</f>
-        <v>156</v>
-      </c>
-      <c r="H22" s="3">
-        <v>33</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -1283,20 +1210,16 @@
         <v>10</v>
       </c>
       <c r="G23" s="3">
-        <f>SUM(F$1:F23)</f>
-        <v>166</v>
-      </c>
-      <c r="H23" s="3">
-        <v>33</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H23" s="4">
+        <f>G23*F23</f>
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -1315,20 +1238,16 @@
         <v>17</v>
       </c>
       <c r="G24" s="3">
-        <f>SUM(F$1:F24)</f>
-        <v>183</v>
-      </c>
-      <c r="H24" s="3">
-        <v>33</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H24" s="4">
+        <f>G24*F24</f>
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -1347,110 +1266,104 @@
         <v>6</v>
       </c>
       <c r="G25" s="3">
-        <f>SUM(F$1:F25)</f>
-        <v>189</v>
-      </c>
-      <c r="H25" s="3">
-        <v>33</v>
-      </c>
-      <c r="I25" s="4">
-        <f>H25*F25</f>
+        <v>33</v>
+      </c>
+      <c r="H25" s="4">
+        <f>G25*F25</f>
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
-        <f t="shared" ref="C26" si="7">SUM(C14:C25)</f>
+        <f t="shared" ref="C26" si="6">SUM(C14:C25)</f>
         <v>29</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" ref="D26" si="8">SUM(D14:D25)</f>
+        <f t="shared" ref="D26" si="7">SUM(D14:D25)</f>
         <v>33</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" ref="E26" si="9">SUM(E14:E25)</f>
+        <f t="shared" ref="E26" si="8">SUM(E14:E25)</f>
         <v>26</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" ref="F26" si="10">SUM(F14:F25)</f>
+        <f t="shared" ref="F26" si="9">SUM(F14:F25)</f>
         <v>74</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11">
-        <f>SUM(I14:I25)</f>
+      <c r="H26" s="11">
+        <f>SUM(H14:H25)</f>
         <v>2442</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="9">
-        <f t="shared" ref="C27" si="11">C26+C12</f>
+        <f t="shared" ref="C27" si="10">C26+C12</f>
         <v>42.5</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" ref="D27" si="12">D26+D12</f>
+        <f t="shared" ref="D27" si="11">D26+D12</f>
         <v>47.5</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" ref="E27" si="13">E26+E12</f>
+        <f t="shared" ref="E27" si="12">E26+E12</f>
         <v>39.5</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" ref="F27" si="14">F26+F12</f>
+        <f t="shared" ref="F27" si="13">F26+F12</f>
         <v>131.5</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9">
-        <f>SUM(I12,I26)</f>
+      <c r="H27" s="9">
+        <f>SUM(H12,H26)</f>
         <v>4339.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="B31" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="8"/>
     </row>
